--- a/latest_projections/WeeklyProjections_citywide20250813.xlsx
+++ b/latest_projections/WeeklyProjections_citywide20250813.xlsx
@@ -420,19 +420,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>19951584</v>
+        <v>21838663</v>
       </c>
       <c r="E2">
-        <v>18634675</v>
+        <v>20369830</v>
       </c>
       <c r="F2">
-        <v>21382386</v>
+        <v>23425228</v>
       </c>
       <c r="G2">
-        <v>16408903</v>
+        <v>17890210</v>
       </c>
       <c r="H2">
-        <v>24501614</v>
+        <v>26866740</v>
       </c>
     </row>
     <row r="3">
@@ -452,19 +452,19 @@
         </is>
       </c>
       <c r="D3">
-        <v>2216074</v>
+        <v>2413427</v>
       </c>
       <c r="E3">
-        <v>2170128</v>
+        <v>2362141</v>
       </c>
       <c r="F3">
-        <v>2263235</v>
+        <v>2466002</v>
       </c>
       <c r="G3">
-        <v>2086000</v>
+        <v>2268076</v>
       </c>
       <c r="H3">
-        <v>2355970</v>
+        <v>2569346</v>
       </c>
     </row>
     <row r="4">
@@ -484,19 +484,19 @@
         </is>
       </c>
       <c r="D4">
-        <v>64669</v>
+        <v>90709</v>
       </c>
       <c r="E4">
-        <v>45374</v>
+        <v>63687</v>
       </c>
       <c r="F4">
-        <v>83574</v>
+        <v>117476</v>
       </c>
       <c r="G4">
-        <v>27444</v>
+        <v>38486</v>
       </c>
       <c r="H4">
-        <v>109817</v>
+        <v>154637</v>
       </c>
     </row>
     <row r="5">
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="D5">
-        <v>9345</v>
+        <v>13743</v>
       </c>
       <c r="E5">
-        <v>6121</v>
+        <v>9062</v>
       </c>
       <c r="F5">
-        <v>12501</v>
+        <v>18394</v>
       </c>
       <c r="G5">
-        <v>3131</v>
+        <v>4683</v>
       </c>
       <c r="H5">
-        <v>16482</v>
+        <v>24506</v>
       </c>
     </row>
     <row r="6">
@@ -548,19 +548,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>8812</v>
+        <v>10968</v>
       </c>
       <c r="E6">
-        <v>8199</v>
+        <v>10175</v>
       </c>
       <c r="F6">
-        <v>9479</v>
+        <v>11837</v>
       </c>
       <c r="G6">
-        <v>7204</v>
+        <v>8880</v>
       </c>
       <c r="H6">
-        <v>10881</v>
+        <v>13672</v>
       </c>
     </row>
     <row r="7">
@@ -580,19 +580,19 @@
         </is>
       </c>
       <c r="D7">
-        <v>55494</v>
+        <v>77209</v>
       </c>
       <c r="E7">
-        <v>36198</v>
+        <v>50076</v>
       </c>
       <c r="F7">
-        <v>74319</v>
+        <v>103738</v>
       </c>
       <c r="G7">
-        <v>17281</v>
+        <v>23675</v>
       </c>
       <c r="H7">
-        <v>100315</v>
+        <v>140231</v>
       </c>
     </row>
     <row r="8">
@@ -612,19 +612,19 @@
         </is>
       </c>
       <c r="D8">
-        <v>7287</v>
+        <v>10742</v>
       </c>
       <c r="E8">
-        <v>4855</v>
+        <v>7139</v>
       </c>
       <c r="F8">
-        <v>9908</v>
+        <v>14558</v>
       </c>
       <c r="G8">
-        <v>2422</v>
+        <v>3646</v>
       </c>
       <c r="H8">
-        <v>14117</v>
+        <v>20883</v>
       </c>
     </row>
     <row r="9">
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="D9">
-        <v>63883</v>
+        <v>89511</v>
       </c>
       <c r="E9">
-        <v>44832</v>
+        <v>62927</v>
       </c>
       <c r="F9">
-        <v>82485</v>
+        <v>115825</v>
       </c>
       <c r="G9">
-        <v>27140</v>
+        <v>38144</v>
       </c>
       <c r="H9">
-        <v>108394</v>
+        <v>152446</v>
       </c>
     </row>
     <row r="10">
@@ -997,19 +997,19 @@
         </is>
       </c>
       <c r="E2">
-        <v>1711740</v>
+        <v>1760147</v>
       </c>
       <c r="F2">
-        <v>1046990</v>
+        <v>1062790</v>
       </c>
       <c r="G2">
-        <v>2463460</v>
+        <v>2578052</v>
       </c>
       <c r="H2">
-        <v>279140</v>
+        <v>291190</v>
       </c>
       <c r="I2">
-        <v>3976607</v>
+        <v>4259500</v>
       </c>
     </row>
     <row r="3">
@@ -1034,19 +1034,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>59952</v>
+        <v>61949</v>
       </c>
       <c r="F3">
-        <v>34703</v>
+        <v>35690</v>
       </c>
       <c r="G3">
-        <v>96353</v>
+        <v>100517</v>
       </c>
       <c r="H3">
-        <v>10349</v>
+        <v>10863</v>
       </c>
       <c r="I3">
-        <v>196740</v>
+        <v>210417</v>
       </c>
     </row>
     <row r="4">
@@ -1071,19 +1071,19 @@
         </is>
       </c>
       <c r="E4">
-        <v>2139</v>
+        <v>2681</v>
       </c>
       <c r="F4">
-        <v>1102</v>
+        <v>1321</v>
       </c>
       <c r="G4">
-        <v>3866</v>
+        <v>5036</v>
       </c>
       <c r="H4">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="I4">
-        <v>9154</v>
+        <v>12722</v>
       </c>
     </row>
     <row r="5">
@@ -1108,19 +1108,19 @@
         </is>
       </c>
       <c r="E5">
-        <v>328</v>
+        <v>404</v>
       </c>
       <c r="F5">
-        <v>169</v>
+        <v>200</v>
       </c>
       <c r="G5">
-        <v>590</v>
+        <v>767</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I5">
-        <v>1373</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="6">
@@ -1145,19 +1145,19 @@
         </is>
       </c>
       <c r="E6">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="F6">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="G6">
-        <v>414</v>
+        <v>535</v>
       </c>
       <c r="H6">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I6">
-        <v>1504</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="7">
@@ -1182,19 +1182,19 @@
         </is>
       </c>
       <c r="E7">
-        <v>1740</v>
+        <v>2177</v>
       </c>
       <c r="F7">
-        <v>813</v>
+        <v>984</v>
       </c>
       <c r="G7">
-        <v>3318</v>
+        <v>4302</v>
       </c>
       <c r="H7">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="I7">
-        <v>8264</v>
+        <v>11390</v>
       </c>
     </row>
     <row r="8">
@@ -1219,19 +1219,19 @@
         </is>
       </c>
       <c r="E8">
-        <v>260</v>
+        <v>319</v>
       </c>
       <c r="F8">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="G8">
-        <v>470</v>
+        <v>611</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I8">
-        <v>1124</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="9">
@@ -1256,19 +1256,19 @@
         </is>
       </c>
       <c r="E9">
-        <v>1959</v>
+        <v>2439</v>
       </c>
       <c r="F9">
-        <v>1046</v>
+        <v>1267</v>
       </c>
       <c r="G9">
-        <v>3522</v>
+        <v>4535</v>
       </c>
       <c r="H9">
-        <v>299</v>
+        <v>355</v>
       </c>
       <c r="I9">
-        <v>8617</v>
+        <v>11930</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         </is>
       </c>
       <c r="E10">
-        <v>536498</v>
+        <v>586668</v>
       </c>
       <c r="F10">
-        <v>259387</v>
+        <v>278767</v>
       </c>
       <c r="G10">
-        <v>1053233</v>
+        <v>1158971</v>
       </c>
       <c r="H10">
-        <v>63506</v>
+        <v>67804</v>
       </c>
       <c r="I10">
-        <v>2690255</v>
+        <v>2957840</v>
       </c>
     </row>
     <row r="11">
@@ -1330,19 +1330,19 @@
         </is>
       </c>
       <c r="E11">
-        <v>20719</v>
+        <v>22920</v>
       </c>
       <c r="F11">
-        <v>11155</v>
+        <v>12240</v>
       </c>
       <c r="G11">
-        <v>39034</v>
+        <v>43164</v>
       </c>
       <c r="H11">
-        <v>3648</v>
+        <v>3950</v>
       </c>
       <c r="I11">
-        <v>115279</v>
+        <v>127772</v>
       </c>
     </row>
     <row r="12">
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="E12">
-        <v>1094</v>
+        <v>1578</v>
       </c>
       <c r="F12">
-        <v>520</v>
+        <v>718</v>
       </c>
       <c r="G12">
-        <v>2205</v>
+        <v>3234</v>
       </c>
       <c r="H12">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="I12">
-        <v>6712</v>
+        <v>9995</v>
       </c>
     </row>
     <row r="13">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="E13">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="F13">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="G13">
-        <v>306</v>
+        <v>464</v>
       </c>
       <c r="H13">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I13">
-        <v>952</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="14">
@@ -1441,19 +1441,19 @@
         </is>
       </c>
       <c r="E14">
-        <v>111</v>
+        <v>161</v>
       </c>
       <c r="F14">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="G14">
-        <v>246</v>
+        <v>356</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I14">
-        <v>1084</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="15">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="E15">
-        <v>898</v>
+        <v>1289</v>
       </c>
       <c r="F15">
-        <v>403</v>
+        <v>555</v>
       </c>
       <c r="G15">
-        <v>1892</v>
+        <v>2755</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="I15">
-        <v>6048</v>
+        <v>8914</v>
       </c>
     </row>
     <row r="16">
@@ -1515,19 +1515,19 @@
         </is>
       </c>
       <c r="E16">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="F16">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>244</v>
+        <v>370</v>
       </c>
       <c r="H16">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I16">
-        <v>771</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="17">
@@ -1552,19 +1552,19 @@
         </is>
       </c>
       <c r="E17">
-        <v>1045</v>
+        <v>1488</v>
       </c>
       <c r="F17">
-        <v>541</v>
+        <v>753</v>
       </c>
       <c r="G17">
-        <v>2017</v>
+        <v>2924</v>
       </c>
       <c r="H17">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="I17">
-        <v>6265</v>
+        <v>9309</v>
       </c>
     </row>
     <row r="18">
@@ -1589,19 +1589,19 @@
         </is>
       </c>
       <c r="E18">
-        <v>378492</v>
+        <v>411409</v>
       </c>
       <c r="F18">
-        <v>181947</v>
+        <v>195242</v>
       </c>
       <c r="G18">
-        <v>783550</v>
+        <v>857997</v>
       </c>
       <c r="H18">
-        <v>50231</v>
+        <v>53650</v>
       </c>
       <c r="I18">
-        <v>2362706</v>
+        <v>2585776</v>
       </c>
     </row>
     <row r="19">
@@ -1626,19 +1626,19 @@
         </is>
       </c>
       <c r="E19">
-        <v>15236</v>
+        <v>16778</v>
       </c>
       <c r="F19">
-        <v>8339</v>
+        <v>9129</v>
       </c>
       <c r="G19">
-        <v>29356</v>
+        <v>32367</v>
       </c>
       <c r="H19">
-        <v>3060</v>
+        <v>3309</v>
       </c>
       <c r="I19">
-        <v>97153</v>
+        <v>107041</v>
       </c>
     </row>
     <row r="20">
@@ -1663,19 +1663,19 @@
         </is>
       </c>
       <c r="E20">
-        <v>815</v>
+        <v>1156</v>
       </c>
       <c r="F20">
-        <v>389</v>
+        <v>534</v>
       </c>
       <c r="G20">
-        <v>1687</v>
+        <v>2442</v>
       </c>
       <c r="H20">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="I20">
-        <v>5764</v>
+        <v>8529</v>
       </c>
     </row>
     <row r="21">
@@ -1700,19 +1700,19 @@
         </is>
       </c>
       <c r="E21">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="F21">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="G21">
-        <v>245</v>
+        <v>365</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I21">
-        <v>831</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="22">
@@ -1737,19 +1737,19 @@
         </is>
       </c>
       <c r="E22">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="F22">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="G22">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I22">
-        <v>933</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="23">
@@ -1774,19 +1774,19 @@
         </is>
       </c>
       <c r="E23">
-        <v>664</v>
+        <v>938</v>
       </c>
       <c r="F23">
-        <v>298</v>
+        <v>408</v>
       </c>
       <c r="G23">
-        <v>1431</v>
+        <v>2061</v>
       </c>
       <c r="H23">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="I23">
-        <v>5166</v>
+        <v>7580</v>
       </c>
     </row>
     <row r="24">
@@ -1811,19 +1811,19 @@
         </is>
       </c>
       <c r="E24">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F24">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G24">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I24">
-        <v>670</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="25">
@@ -1848,19 +1848,19 @@
         </is>
       </c>
       <c r="E25">
-        <v>832</v>
+        <v>1178</v>
       </c>
       <c r="F25">
-        <v>438</v>
+        <v>609</v>
       </c>
       <c r="G25">
-        <v>1618</v>
+        <v>2329</v>
       </c>
       <c r="H25">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="I25">
-        <v>5411</v>
+        <v>8041</v>
       </c>
     </row>
     <row r="26">
@@ -1885,19 +1885,19 @@
         </is>
       </c>
       <c r="E26">
-        <v>279858</v>
+        <v>297593</v>
       </c>
       <c r="F26">
-        <v>136872</v>
+        <v>144456</v>
       </c>
       <c r="G26">
-        <v>585921</v>
+        <v>627962</v>
       </c>
       <c r="H26">
-        <v>41301</v>
+        <v>43864</v>
       </c>
       <c r="I26">
-        <v>1993480</v>
+        <v>2145170</v>
       </c>
     </row>
     <row r="27">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="E27">
-        <v>11911</v>
+        <v>12805</v>
       </c>
       <c r="F27">
-        <v>6694</v>
+        <v>7184</v>
       </c>
       <c r="G27">
-        <v>22873</v>
+        <v>24596</v>
       </c>
       <c r="H27">
-        <v>2668</v>
+        <v>2859</v>
       </c>
       <c r="I27">
-        <v>80141</v>
+        <v>86376</v>
       </c>
     </row>
     <row r="28">
@@ -1959,19 +1959,19 @@
         </is>
       </c>
       <c r="E28">
-        <v>650</v>
+        <v>864</v>
       </c>
       <c r="F28">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="G28">
-        <v>1355</v>
+        <v>1831</v>
       </c>
       <c r="H28">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="I28">
-        <v>4933</v>
+        <v>6952</v>
       </c>
     </row>
     <row r="29">
@@ -1996,19 +1996,19 @@
         </is>
       </c>
       <c r="E29">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="F29">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G29">
-        <v>211</v>
+        <v>292</v>
       </c>
       <c r="H29">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29">
-        <v>747</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="30">
@@ -2033,19 +2033,19 @@
         </is>
       </c>
       <c r="E30">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="F30">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G30">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="H30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I30">
-        <v>812</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="31">
@@ -2070,19 +2070,19 @@
         </is>
       </c>
       <c r="E31">
-        <v>523</v>
+        <v>692</v>
       </c>
       <c r="F31">
-        <v>239</v>
+        <v>311</v>
       </c>
       <c r="G31">
-        <v>1135</v>
+        <v>1526</v>
       </c>
       <c r="H31">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I31">
-        <v>4385</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="32">
@@ -2107,19 +2107,19 @@
         </is>
       </c>
       <c r="E32">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="F32">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G32">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="H32">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32">
-        <v>599</v>
+        <v>858</v>
       </c>
     </row>
     <row r="33">
@@ -2144,19 +2144,19 @@
         </is>
       </c>
       <c r="E33">
-        <v>707</v>
+        <v>962</v>
       </c>
       <c r="F33">
-        <v>377</v>
+        <v>510</v>
       </c>
       <c r="G33">
-        <v>1371</v>
+        <v>1882</v>
       </c>
       <c r="H33">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="I33">
-        <v>4690</v>
+        <v>6707</v>
       </c>
     </row>
     <row r="34">
@@ -2181,19 +2181,19 @@
         </is>
       </c>
       <c r="E34">
-        <v>729294</v>
+        <v>804235</v>
       </c>
       <c r="F34">
-        <v>364075</v>
+        <v>392970</v>
       </c>
       <c r="G34">
-        <v>1331527</v>
+        <v>1474431</v>
       </c>
       <c r="H34">
-        <v>81028</v>
+        <v>86582</v>
       </c>
       <c r="I34">
-        <v>2963437</v>
+        <v>3271133</v>
       </c>
     </row>
     <row r="35">
@@ -2218,19 +2218,19 @@
         </is>
       </c>
       <c r="E35">
-        <v>27530</v>
+        <v>30612</v>
       </c>
       <c r="F35">
-        <v>14874</v>
+        <v>16379</v>
       </c>
       <c r="G35">
-        <v>49725</v>
+        <v>55313</v>
       </c>
       <c r="H35">
-        <v>4405</v>
+        <v>4777</v>
       </c>
       <c r="I35">
-        <v>131638</v>
+        <v>146978</v>
       </c>
     </row>
     <row r="36">
@@ -2255,19 +2255,19 @@
         </is>
       </c>
       <c r="E36">
-        <v>1462</v>
+        <v>2134</v>
       </c>
       <c r="F36">
-        <v>697</v>
+        <v>976</v>
       </c>
       <c r="G36">
-        <v>2824</v>
+        <v>4185</v>
       </c>
       <c r="H36">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="I36">
-        <v>7677</v>
+        <v>11430</v>
       </c>
     </row>
     <row r="37">
@@ -2292,19 +2292,19 @@
         </is>
       </c>
       <c r="E37">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="F37">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="G37">
-        <v>380</v>
+        <v>584</v>
       </c>
       <c r="H37">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I37">
-        <v>1079</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="38">
@@ -2329,19 +2329,19 @@
         </is>
       </c>
       <c r="E38">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="F38">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G38">
-        <v>296</v>
+        <v>434</v>
       </c>
       <c r="H38">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I38">
-        <v>1243</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="39">
@@ -2366,19 +2366,19 @@
         </is>
       </c>
       <c r="E39">
-        <v>1210</v>
+        <v>1754</v>
       </c>
       <c r="F39">
-        <v>545</v>
+        <v>760</v>
       </c>
       <c r="G39">
-        <v>2450</v>
+        <v>3601</v>
       </c>
       <c r="H39">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="I39">
-        <v>6952</v>
+        <v>10238</v>
       </c>
     </row>
     <row r="40">
@@ -2403,19 +2403,19 @@
         </is>
       </c>
       <c r="E40">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="F40">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="G40">
-        <v>303</v>
+        <v>466</v>
       </c>
       <c r="H40">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I40">
-        <v>877</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="41">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="E41">
-        <v>1320</v>
+        <v>1884</v>
       </c>
       <c r="F41">
-        <v>678</v>
+        <v>940</v>
       </c>
       <c r="G41">
-        <v>2503</v>
+        <v>3649</v>
       </c>
       <c r="H41">
-        <v>201</v>
+        <v>267</v>
       </c>
       <c r="I41">
-        <v>7116</v>
+        <v>10574</v>
       </c>
     </row>
     <row r="42">
@@ -2477,19 +2477,19 @@
         </is>
       </c>
       <c r="E42">
-        <v>978276</v>
+        <v>1061932</v>
       </c>
       <c r="F42">
-        <v>524325</v>
+        <v>555247</v>
       </c>
       <c r="G42">
-        <v>1630497</v>
+        <v>1784162</v>
       </c>
       <c r="H42">
-        <v>111158</v>
+        <v>116612</v>
       </c>
       <c r="I42">
-        <v>3229340</v>
+        <v>3544115</v>
       </c>
     </row>
     <row r="43">
@@ -2514,19 +2514,19 @@
         </is>
       </c>
       <c r="E43">
-        <v>36939</v>
+        <v>40332</v>
       </c>
       <c r="F43">
-        <v>20622</v>
+        <v>22287</v>
       </c>
       <c r="G43">
-        <v>62846</v>
+        <v>68939</v>
       </c>
       <c r="H43">
-        <v>5674</v>
+        <v>6073</v>
       </c>
       <c r="I43">
-        <v>148227</v>
+        <v>164978</v>
       </c>
     </row>
     <row r="44">
@@ -2551,19 +2551,19 @@
         </is>
       </c>
       <c r="E44">
-        <v>2076</v>
+        <v>2900</v>
       </c>
       <c r="F44">
-        <v>1027</v>
+        <v>1386</v>
       </c>
       <c r="G44">
-        <v>3755</v>
+        <v>5367</v>
       </c>
       <c r="H44">
-        <v>233</v>
+        <v>291</v>
       </c>
       <c r="I44">
-        <v>8926</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="45">
@@ -2588,19 +2588,19 @@
         </is>
       </c>
       <c r="E45">
-        <v>270</v>
+        <v>382</v>
       </c>
       <c r="F45">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="G45">
-        <v>499</v>
+        <v>738</v>
       </c>
       <c r="H45">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="I45">
-        <v>1250</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="46">
@@ -2625,19 +2625,19 @@
         </is>
       </c>
       <c r="E46">
-        <v>169</v>
+        <v>240</v>
       </c>
       <c r="F46">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="G46">
-        <v>380</v>
+        <v>541</v>
       </c>
       <c r="H46">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I46">
-        <v>1444</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="47">
@@ -2662,19 +2662,19 @@
         </is>
       </c>
       <c r="E47">
-        <v>1724</v>
+        <v>2399</v>
       </c>
       <c r="F47">
-        <v>806</v>
+        <v>1083</v>
       </c>
       <c r="G47">
-        <v>3286</v>
+        <v>4661</v>
       </c>
       <c r="H47">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="I47">
-        <v>8113</v>
+        <v>11635</v>
       </c>
     </row>
     <row r="48">
@@ -2699,19 +2699,19 @@
         </is>
       </c>
       <c r="E48">
-        <v>214</v>
+        <v>303</v>
       </c>
       <c r="F48">
-        <v>106</v>
+        <v>143</v>
       </c>
       <c r="G48">
-        <v>398</v>
+        <v>588</v>
       </c>
       <c r="H48">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I48">
-        <v>1019</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="49">
@@ -2736,19 +2736,19 @@
         </is>
       </c>
       <c r="E49">
-        <v>1791</v>
+        <v>2466</v>
       </c>
       <c r="F49">
-        <v>919</v>
+        <v>1232</v>
       </c>
       <c r="G49">
-        <v>3265</v>
+        <v>4614</v>
       </c>
       <c r="H49">
-        <v>261</v>
+        <v>332</v>
       </c>
       <c r="I49">
-        <v>8292</v>
+        <v>12024</v>
       </c>
     </row>
     <row r="50">
@@ -4650,77 +4650,77 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37089 (28732, 50442)</t>
+          <t>41665 (32078, 57290)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1341 (1109, 1654)</t>
+          <t>1529 (1262, 1890)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>79 (50, 121)</t>
+          <t>119 (75, 186)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>68 (40, 107)</t>
+          <t>100 (58, 162)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>7 (3, 13)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>71 (35, 138)</t>
+          <t>120 (61, 231)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>61 (26, 125)</t>
+          <t>101 (45, 207)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8 (3, 17)</t>
+          <t>13 (5, 29)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>12 (7, 23)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>65 (31, 128)</t>
+          <t>110 (55, 215)</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>55 (22, 116)</t>
+          <t>92 (39, 192)</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>7 (3, 16)</t>
+          <t>12 (5, 27)</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>11 (6, 21)</t>
         </is>
       </c>
     </row>
@@ -4742,77 +4742,77 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34019 (25263, 47549)</t>
+          <t>38116 (28054, 53825)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1411 (1169, 1721)</t>
+          <t>1592 (1313, 1952)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>87 (56, 130)</t>
+          <t>128 (81, 196)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>75 (45, 116)</t>
+          <t>108 (64, 172)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11 (7, 17)</t>
+          <t>18 (11, 29)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>8 (5, 13)</t>
+          <t>11 (6, 19)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>78 (39, 146)</t>
+          <t>129 (66, 243)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>67 (30, 134)</t>
+          <t>110 (49, 219)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8 (3, 17)</t>
+          <t>14 (6, 29)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>13 (7, 23)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>73 (36, 137)</t>
+          <t>121 (62, 228)</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>63 (27, 125)</t>
+          <t>102 (45, 205)</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>7 (3, 16)</t>
+          <t>13 (5, 28)</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
     </row>
@@ -4834,77 +4834,77 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>32774 (24101, 46563)</t>
+          <t>36285 (26349, 52237)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1300 (1068, 1607)</t>
+          <t>1451 (1185, 1806)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>83 (52, 126)</t>
+          <t>119 (75, 187)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>70 (41, 111)</t>
+          <t>99 (57, 162)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>12 (7, 18)</t>
+          <t>19 (11, 29)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>9 (6, 15)</t>
+          <t>15 (9, 24)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>79 (39, 150)</t>
+          <t>128 (65, 245)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>68 (29, 137)</t>
+          <t>109 (47, 221)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>8 (3, 18)</t>
+          <t>14 (6, 30)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>75 (36, 142)</t>
+          <t>120 (60, 231)</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>63 (26, 129)</t>
+          <t>101 (43, 207)</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>8 (3, 17)</t>
+          <t>13 (6, 29)</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>13 (7, 23)</t>
         </is>
       </c>
     </row>
@@ -4926,77 +4926,77 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>29729 (21041, 43878)</t>
+          <t>33329 (23499, 49588)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1220 (989, 1532)</t>
+          <t>1383 (1119, 1742)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77 (48, 121)</t>
+          <t>111 (68, 178)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>65 (37, 105)</t>
+          <t>92 (52, 154)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>11 (7, 18)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>9 (5, 14)</t>
+          <t>14 (8, 23)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>76 (35, 147)</t>
+          <t>121 (59, 236)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>64 (26, 134)</t>
+          <t>101 (43, 212)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>8 (3, 18)</t>
+          <t>14 (6, 30)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>7 (4, 12)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>71 (33, 138)</t>
+          <t>112 (54, 221)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>59 (23, 125)</t>
+          <t>93 (38, 198)</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>8 (3, 17)</t>
+          <t>13 (5, 28)</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
     </row>
@@ -5018,77 +5018,77 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28434 (20569, 41418)</t>
+          <t>31290 (22368, 46177)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1127 (905, 1432)</t>
+          <t>1257 (1004, 1605)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>70 (43, 112)</t>
+          <t>101 (62, 166)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>59 (34, 98)</t>
+          <t>84 (47, 142)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11 (6, 17)</t>
+          <t>16 (10, 27)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>13 (7, 21)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>70 (32, 138)</t>
+          <t>112 (54, 222)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>59 (23, 125)</t>
+          <t>93 (39, 199)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>8 (3, 18)</t>
+          <t>13 (5, 29)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>65 (30, 129)</t>
+          <t>104 (50, 207)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>54 (21, 116)</t>
+          <t>85 (35, 184)</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>8 (3, 17)</t>
+          <t>12 (5, 27)</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>11 (6, 21)</t>
         </is>
       </c>
     </row>
@@ -5110,77 +5110,77 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>26878 (18202, 41459)</t>
+          <t>30147 (20525, 46541)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>983 (768, 1281)</t>
+          <t>1121 (878, 1458)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>68 (42, 108)</t>
+          <t>95 (58, 156)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>57 (32, 94)</t>
+          <t>79 (44, 134)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>12 (7, 20)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>7 (3, 14)</t>
+          <t>11 (6, 21)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>66 (31, 131)</t>
+          <t>104 (50, 206)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>55 (22, 118)</t>
+          <t>86 (36, 185)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>7 (3, 17)</t>
+          <t>12 (5, 27)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>11 (6, 21)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>60 (28, 121)</t>
+          <t>95 (45, 191)</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>50 (20, 109)</t>
+          <t>78 (31, 170)</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>7 (3, 16)</t>
+          <t>11 (4, 25)</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>10 (5, 20)</t>
         </is>
       </c>
     </row>
@@ -5202,77 +5202,77 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>36640 (27710, 52376)</t>
+          <t>39460 (29521, 57179)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1201 (981, 1509)</t>
+          <t>1332 (1083, 1681)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>73 (45, 117)</t>
+          <t>102 (62, 166)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>62 (36, 103)</t>
+          <t>86 (49, 144)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>15 (8, 24)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>11 (7, 19)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>8 (4, 13)</t>
+          <t>11 (6, 19)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>68 (32, 132)</t>
+          <t>104 (52, 205)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>58 (24, 120)</t>
+          <t>88 (38, 184)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7 (3, 16)</t>
+          <t>11 (5, 26)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>11 (5, 20)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>62 (29, 122)</t>
+          <t>96 (47, 189)</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>52 (21, 110)</t>
+          <t>80 (33, 169)</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>7 (3, 15)</t>
+          <t>11 (4, 24)</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5 (3, 10)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
     </row>
@@ -5294,77 +5294,77 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33699 (22823, 51914)</t>
+          <t>37211 (25371, 57291)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1192 (944, 1525)</t>
+          <t>1364 (1088, 1735)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>76 (46, 124)</t>
+          <t>108 (66, 178)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>64 (36, 109)</t>
+          <t>91 (51, 154)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>11 (6, 17)</t>
+          <t>16 (9, 26)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>8 (5, 14)</t>
+          <t>12 (7, 21)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>70 (32, 140)</t>
+          <t>109 (53, 215)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>59 (24, 127)</t>
+          <t>92 (39, 194)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>8 (3, 17)</t>
+          <t>12 (5, 26)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>64 (29, 129)</t>
+          <t>100 (48, 199)</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>54 (21, 117)</t>
+          <t>84 (34, 178)</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>7 (3, 16)</t>
+          <t>11 (5, 24)</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>10 (5, 19)</t>
         </is>
       </c>
     </row>
@@ -5386,77 +5386,77 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>41526 (31431, 59187)</t>
+          <t>45741 (34552, 65493)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1413 (1173, 1747)</t>
+          <t>1611 (1341, 1988)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>81 (51, 132)</t>
+          <t>118 (73, 191)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>69 (40, 115)</t>
+          <t>100 (57, 166)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>11 (6, 19)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>9 (5, 15)</t>
+          <t>13 (8, 22)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>8 (4, 14)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>73 (35, 147)</t>
+          <t>116 (59, 228)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>62 (25, 133)</t>
+          <t>99 (43, 205)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>8 (3, 18)</t>
+          <t>13 (5, 28)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>66 (31, 134)</t>
+          <t>105 (52, 209)</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>55 (22, 121)</t>
+          <t>88 (38, 187)</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>7 (3, 17)</t>
+          <t>12 (5, 26)</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>6 (3, 11)</t>
+          <t>11 (6, 20)</t>
         </is>
       </c>
     </row>
@@ -5478,77 +5478,77 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>44026 (31290, 65059)</t>
+          <t>48872 (34687, 72382)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1566 (1289, 1932)</t>
+          <t>1788 (1473, 2206)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>95 (60, 148)</t>
+          <t>136 (85, 215)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>82 (48, 131)</t>
+          <t>116 (67, 188)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>19 (11, 31)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>10 (6, 16)</t>
+          <t>15 (9, 25)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>9 (5, 16)</t>
+          <t>14 (7, 25)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>84 (41, 162)</t>
+          <t>133 (68, 254)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>72 (31, 148)</t>
+          <t>113 (51, 230)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>14 (6, 31)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7 (3, 13)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>76 (37, 148)</t>
+          <t>120 (61, 232)</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>65 (27, 134)</t>
+          <t>102 (45, 209)</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>8 (3, 18)</t>
+          <t>13 (5, 28)</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>6 (3, 12)</t>
+          <t>12 (6, 22)</t>
         </is>
       </c>
     </row>
@@ -5570,77 +5570,77 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>52908 (39005, 77558)</t>
+          <t>57458 (41854, 85154)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1569 (1285, 1966)</t>
+          <t>1758 (1434, 2213)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>104 (65, 165)</t>
+          <t>149 (92, 239)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>89 (52, 146)</t>
+          <t>126 (72, 209)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14 (8, 22)</t>
+          <t>21 (12, 34)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11 (6, 18)</t>
+          <t>17 (10, 27)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>10 (5, 18)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>94 (45, 181)</t>
+          <t>148 (74, 284)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>80 (33, 165)</t>
+          <t>126 (55, 257)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 34)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>14 (8, 26)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>86 (41, 166)</t>
+          <t>135 (67, 260)</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>73 (30, 150)</t>
+          <t>114 (49, 235)</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>9 (4, 20)</t>
+          <t>14 (6, 31)</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>7 (4, 13)</t>
+          <t>13 (7, 24)</t>
         </is>
       </c>
     </row>
@@ -6769,57 +6769,57 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>83004 (53280, 139607)</t>
+          <t>87852 (56052, 148354)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2542 (1897, 3639)</t>
+          <t>2772 (2059, 3979)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>119 (73, 198)</t>
+          <t>165 (99, 281)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>102 (58, 175)</t>
+          <t>140 (78, 246)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>23 (14, 38)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>18 (11, 31)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>17 (8, 32)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>106 (65, 169)</t>
+          <t>149 (91, 241)</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>90 (52, 149)</t>
+          <t>126 (71, 211)</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>21 (12, 35)</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>11 (7, 19)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -6846,57 +6846,57 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>151290 (82777, 286723)</t>
+          <t>156565 (85468, 296478)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4306 (2676, 7326)</t>
+          <t>4554 (2834, 7716)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>163 (91, 303)</t>
+          <t>214 (116, 402)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>141 (74, 270)</t>
+          <t>182 (93, 354)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20 (11, 35)</t>
+          <t>28 (16, 49)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16 (9, 28)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13 (6, 27)</t>
+          <t>19 (9, 37)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>129 (76, 224)</t>
+          <t>174 (102, 304)</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>110 (60, 199)</t>
+          <t>147 (80, 267)</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>16 (9, 27)</t>
+          <t>24 (14, 40)</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>19 (11, 33)</t>
         </is>
       </c>
     </row>
@@ -6923,57 +6923,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>234873 (120900, 431432)</t>
+          <t>240865 (123776, 442985)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6981 (3810, 12890)</t>
+          <t>7251 (3979, 13324)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>234 (117, 464)</t>
+          <t>289 (142, 584)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>198 (93, 406)</t>
+          <t>243 (113, 509)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>29 (15, 56)</t>
+          <t>37 (19, 73)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>23 (12, 45)</t>
+          <t>30 (15, 59)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>17 (8, 35)</t>
+          <t>23 (11, 47)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>177 (94, 341)</t>
+          <t>225 (120, 434)</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>150 (74, 302)</t>
+          <t>189 (93, 381)</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>21 (12, 39)</t>
+          <t>29 (16, 54)</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>18 (10, 34)</t>
+          <t>24 (13, 45)</t>
         </is>
       </c>
     </row>
@@ -7000,57 +7000,57 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>267480 (142566, 452501)</t>
+          <t>273638 (145536, 465771)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9109 (4774, 16705)</t>
+          <t>9379 (4939, 17196)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>300 (144, 589)</t>
+          <t>361 (169, 730)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>244 (109, 503)</t>
+          <t>295 (128, 623)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>42 (20, 84)</t>
+          <t>51 (24, 105)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>34 (16, 67)</t>
+          <t>40 (19, 83)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22 (10, 48)</t>
+          <t>28 (13, 62)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>242 (119, 481)</t>
+          <t>294 (144, 592)</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>201 (92, 418)</t>
+          <t>243 (111, 511)</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>30 (15, 61)</t>
+          <t>38 (19, 78)</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>27 (13, 54)</t>
+          <t>33 (16, 67)</t>
         </is>
       </c>
     </row>
@@ -7077,57 +7077,57 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>241943 (129028, 393284)</t>
+          <t>248271 (131441, 407901)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9373 (4791, 16854)</t>
+          <t>9623 (4924, 17394)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>320 (153, 617)</t>
+          <t>389 (178, 777)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>254 (108, 520)</t>
+          <t>309 (127, 654)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>52 (25, 101)</t>
+          <t>61 (28, 125)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>41 (20, 80)</t>
+          <t>49 (22, 99)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>27 (12, 61)</t>
+          <t>33 (15, 76)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>289 (141, 562)</t>
+          <t>347 (165, 693)</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>232 (102, 480)</t>
+          <t>279 (121, 590)</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>42 (20, 84)</t>
+          <t>50 (23, 104)</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>36 (17, 72)</t>
+          <t>43 (20, 87)</t>
         </is>
       </c>
     </row>
@@ -7154,57 +7154,57 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>194669 (100544, 316570)</t>
+          <t>201309 (102625, 331415)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8190 (4038, 14766)</t>
+          <t>8443 (4141, 15340)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>302 (141, 580)</t>
+          <t>376 (167, 752)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>236 (95, 486)</t>
+          <t>295 (115, 629)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>53 (25, 100)</t>
+          <t>63 (29, 126)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>42 (20, 80)</t>
+          <t>50 (22, 100)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>30 (14, 69)</t>
+          <t>37 (16, 87)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>297 (143, 576)</t>
+          <t>362 (167, 726)</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>233 (99, 486)</t>
+          <t>285 (117, 612)</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>49 (23, 96)</t>
+          <t>58 (27, 119)</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>41 (20, 78)</t>
+          <t>48 (22, 96)</t>
         </is>
       </c>
     </row>
@@ -7231,57 +7231,57 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>149863 (74315, 249218)</t>
+          <t>156742 (76517, 263938)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6592 (3107, 12151)</t>
+          <t>6842 (3202, 12740)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>269 (121, 519)</t>
+          <t>347 (148, 693)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>210 (81, 435)</t>
+          <t>271 (102, 578)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>47 (22, 90)</t>
+          <t>58 (26, 118)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>37 (17, 71)</t>
+          <t>46 (20, 94)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>31 (14, 73)</t>
+          <t>39 (17, 92)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>279 (130, 543)</t>
+          <t>350 (155, 710)</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>216 (86, 456)</t>
+          <t>273 (105, 595)</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>49 (23, 94)</t>
+          <t>59 (27, 120)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>39 (18, 75)</t>
+          <t>47 (21, 95)</t>
         </is>
       </c>
     </row>
@@ -7308,57 +7308,57 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>115227 (54991, 197760)</t>
+          <t>122520 (57468, 212378)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5181 (2343, 9821)</t>
+          <t>5443 (2444, 10419)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>237 (103, 457)</t>
+          <t>315 (130, 627)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>185 (71, 384)</t>
+          <t>247 (92, 524)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>40 (18, 77)</t>
+          <t>51 (22, 105)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>31 (14, 61)</t>
+          <t>40 (17, 84)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>31 (14, 72)</t>
+          <t>38 (16, 92)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>252 (112, 496)</t>
+          <t>328 (138, 668)</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>195 (74, 416)</t>
+          <t>255 (93, 558)</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>44 (20, 86)</t>
+          <t>55 (24, 113)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>34 (16, 66)</t>
+          <t>43 (18, 88)</t>
         </is>
       </c>
     </row>
@@ -7385,57 +7385,57 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>56701 (38088, 91393)</t>
+          <t>61446 (40793, 99986)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2226 (1702, 3085)</t>
+          <t>2455 (1865, 3424)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>113 (69, 187)</t>
+          <t>159 (95, 269)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>96 (55, 164)</t>
+          <t>134 (75, 234)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>23 (13, 38)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>18 (11, 30)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11 (6, 22)</t>
+          <t>17 (8, 32)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>105 (64, 168)</t>
+          <t>147 (90, 240)</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>89 (51, 148)</t>
+          <t>124 (70, 209)</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>21 (12, 35)</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>11 (7, 18)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -7462,57 +7462,57 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>59753 (35345, 105555)</t>
+          <t>64592 (37730, 115323)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2357 (1597, 3667)</t>
+          <t>2596 (1746, 4051)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>119 (68, 213)</t>
+          <t>167 (93, 308)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>100 (53, 186)</t>
+          <t>140 (72, 267)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>17 (10, 29)</t>
+          <t>24 (14, 43)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>19 (11, 34)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>18 (9, 35)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>112 (68, 188)</t>
+          <t>157 (94, 267)</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>95 (53, 165)</t>
+          <t>132 (73, 232)</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>23 (13, 38)</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>13 (7, 21)</t>
+          <t>18 (11, 31)</t>
         </is>
       </c>
     </row>
@@ -7539,57 +7539,57 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>62769 (33115, 119732)</t>
+          <t>67911 (35329, 130796)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2453 (1466, 4254)</t>
+          <t>2697 (1600, 4683)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>124 (64, 242)</t>
+          <t>176 (88, 350)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>103 (50, 210)</t>
+          <t>145 (68, 301)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18 (10, 33)</t>
+          <t>25 (13, 49)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>14 (8, 26)</t>
+          <t>20 (10, 39)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>19 (9, 38)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>118 (67, 212)</t>
+          <t>165 (92, 302)</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>99 (52, 184)</t>
+          <t>137 (71, 260)</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>17 (10, 29)</t>
+          <t>24 (14, 43)</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>19 (11, 35)</t>
         </is>
       </c>
     </row>
@@ -7616,57 +7616,57 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>65428 (31319, 132542)</t>
+          <t>71073 (33463, 144849)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2544 (1360, 4823)</t>
+          <t>2801 (1484, 5308)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>131 (61, 271)</t>
+          <t>186 (84, 393)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>108 (47, 232)</t>
+          <t>153 (64, 336)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>19 (9, 37)</t>
+          <t>27 (13, 55)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>15 (7, 30)</t>
+          <t>21 (10, 44)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>13 (6, 29)</t>
+          <t>19 (9, 41)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>123 (64, 239)</t>
+          <t>173 (88, 341)</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>102 (49, 207)</t>
+          <t>143 (68, 293)</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>18 (9, 33)</t>
+          <t>25 (13, 49)</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>14 (7, 27)</t>
+          <t>20 (10, 39)</t>
         </is>
       </c>
     </row>
@@ -7693,57 +7693,57 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>67201 (29707, 140926)</t>
+          <t>73447 (31882, 154608)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2612 (1270, 5276)</t>
+          <t>2882 (1390, 5814)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>137 (59, 295)</t>
+          <t>197 (81, 432)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>112 (45, 251)</t>
+          <t>160 (62, 366)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>19 (9, 41)</t>
+          <t>28 (12, 62)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>15 (7, 33)</t>
+          <t>22 (9, 49)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>14 (6, 32)</t>
+          <t>20 (9, 46)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>129 (61, 266)</t>
+          <t>183 (84, 382)</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>106 (47, 227)</t>
+          <t>149 (64, 324)</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>19 (9, 37)</t>
+          <t>26 (13, 55)</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>15 (7, 30)</t>
+          <t>21 (10, 44)</t>
         </is>
       </c>
     </row>
@@ -7770,57 +7770,57 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>67557 (28152, 142259)</t>
+          <t>74320 (30392, 156881)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2626 (1186, 5521)</t>
+          <t>2909 (1303, 6100)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>142 (57, 311)</t>
+          <t>207 (79, 458)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>115 (44, 264)</t>
+          <t>167 (61, 386)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>20 (8, 44)</t>
+          <t>29 (11, 67)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>16 (7, 35)</t>
+          <t>23 (9, 53)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>14 (6, 34)</t>
+          <t>20 (9, 50)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>134 (59, 287)</t>
+          <t>192 (81, 418)</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>109 (45, 244)</t>
+          <t>155 (62, 353)</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>19 (9, 41)</t>
+          <t>28 (12, 61)</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>15 (7, 33)</t>
+          <t>22 (9, 49)</t>
         </is>
       </c>
     </row>
@@ -7847,57 +7847,57 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>66339 (26526, 137458)</t>
+          <t>73426 (28844, 152229)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2589 (1104, 5548)</t>
+          <t>2881 (1221, 6147)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>145 (56, 315)</t>
+          <t>213 (78, 466)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>117 (42, 267)</t>
+          <t>171 (59, 392)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>20 (8, 45)</t>
+          <t>30 (11, 69)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>16 (6, 36)</t>
+          <t>24 (9, 55)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>14 (6, 37)</t>
+          <t>21 (8, 54)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>139 (57, 301)</t>
+          <t>201 (79, 444)</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>112 (43, 256)</t>
+          <t>161 (60, 374)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>20 (8, 43)</t>
+          <t>29 (12, 66)</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>16 (7, 35)</t>
+          <t>23 (9, 52)</t>
         </is>
       </c>
     </row>
@@ -7924,57 +7924,57 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>64159 (25177, 129596)</t>
+          <t>71493 (27607, 144180)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2509 (1030, 5392)</t>
+          <t>2802 (1145, 6004)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>145 (55, 308)</t>
+          <t>214 (77, 458)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>116 (41, 261)</t>
+          <t>171 (58, 386)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>20 (8, 44)</t>
+          <t>30 (11, 69)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16 (6, 35)</t>
+          <t>24 (8, 55)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>15 (6, 39)</t>
+          <t>21 (8, 57)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>141 (55, 306)</t>
+          <t>207 (77, 455)</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>113 (41, 259)</t>
+          <t>166 (58, 382)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>20 (8, 44)</t>
+          <t>30 (11, 68)</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>16 (6, 35)</t>
+          <t>23 (9, 54)</t>
         </is>
       </c>
     </row>
@@ -8001,57 +8001,57 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>52812 (35513, 85101)</t>
+          <t>57220 (38038, 93096)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2169 (1662, 3004)</t>
+          <t>2394 (1822, 3335)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>111 (68, 184)</t>
+          <t>156 (94, 264)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>95 (54, 161)</t>
+          <t>131 (73, 230)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>23 (13, 38)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>18 (11, 30)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>17 (8, 32)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>104 (64, 166)</t>
+          <t>147 (90, 238)</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>89 (51, 147)</t>
+          <t>124 (70, 207)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>21 (12, 34)</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>11 (7, 18)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -8078,57 +8078,57 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>49979 (29410, 88847)</t>
+          <t>53994 (31422, 96947)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2084 (1415, 3245)</t>
+          <t>2295 (1547, 3584)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>108 (61, 193)</t>
+          <t>151 (84, 277)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>89 (47, 167)</t>
+          <t>124 (64, 238)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>16 (9, 28)</t>
+          <t>24 (13, 41)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>19 (10, 33)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>18 (9, 34)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>108 (65, 181)</t>
+          <t>153 (91, 259)</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>92 (51, 159)</t>
+          <t>128 (70, 224)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>23 (13, 38)</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>13 (7, 21)</t>
+          <t>18 (11, 31)</t>
         </is>
       </c>
     </row>
@@ -8155,57 +8155,57 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>47860 (24896, 92994)</t>
+          <t>51696 (26573, 101397)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>1966 (1169, 3439)</t>
+          <t>2160 (1276, 3784)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>102 (52, 200)</t>
+          <t>143 (71, 287)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>83 (39, 171)</t>
+          <t>116 (54, 244)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>16 (9, 29)</t>
+          <t>22 (12, 43)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>13 (7, 23)</t>
+          <t>18 (9, 34)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>12 (6, 25)</t>
+          <t>18 (8, 35)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>106 (60, 192)</t>
+          <t>150 (84, 274)</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>89 (46, 166)</t>
+          <t>124 (64, 235)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>16 (9, 27)</t>
+          <t>23 (13, 41)</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>19 (10, 33)</t>
         </is>
       </c>
     </row>
@@ -8232,57 +8232,57 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>45968 (21404, 96692)</t>
+          <t>49801 (22867, 105411)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>1869 (985, 3624)</t>
+          <t>2054 (1075, 3981)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>98 (45, 207)</t>
+          <t>138 (61, 298)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>80 (34, 176)</t>
+          <t>112 (46, 252)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>15 (7, 30)</t>
+          <t>21 (10, 45)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>17 (8, 36)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>12 (6, 25)</t>
+          <t>17 (8, 36)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>103 (53, 199)</t>
+          <t>145 (73, 285)</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>84 (40, 171)</t>
+          <t>118 (55, 243)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>16 (8, 29)</t>
+          <t>22 (11, 43)</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>18 (9, 35)</t>
         </is>
       </c>
     </row>
@@ -8309,57 +8309,57 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>44395 (18690, 99151)</t>
+          <t>48239 (20044, 108318)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1787 (844, 3763)</t>
+          <t>1965 (923, 4136)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>95 (40, 214)</t>
+          <t>135 (54, 309)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>77 (30, 181)</t>
+          <t>109 (41, 259)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>14 (6, 31)</t>
+          <t>20 (9, 46)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>11 (5, 25)</t>
+          <t>16 (7, 37)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>11 (5, 26)</t>
+          <t>16 (7, 37)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>99 (46, 205)</t>
+          <t>139 (63, 295)</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>80 (35, 175)</t>
+          <t>112 (48, 249)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>15 (7, 30)</t>
+          <t>21 (10, 44)</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>12 (6, 24)</t>
+          <t>17 (8, 36)</t>
         </is>
       </c>
     </row>
@@ -8386,57 +8386,57 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>42687 (16447, 98962)</t>
+          <t>46596 (17715, 108462)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>1710 (733, 3832)</t>
+          <t>1884 (804, 4219)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>93 (36, 219)</t>
+          <t>133 (49, 316)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>74 (27, 183)</t>
+          <t>106 (37, 263)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>14 (6, 32)</t>
+          <t>20 (8, 48)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>11 (5, 27)</t>
+          <t>15 (7, 38)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>95 (40, 211)</t>
+          <t>135 (55, 305)</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>77 (30, 177)</t>
+          <t>108 (42, 255)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>14 (6, 31)</t>
+          <t>20 (9, 46)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>11 (5, 25)</t>
+          <t>16 (7, 37)</t>
         </is>
       </c>
     </row>
@@ -8463,57 +8463,57 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>40737 (14637, 96178)</t>
+          <t>44662 (15832, 105739)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>1628 (644, 3811)</t>
+          <t>1798 (707, 4197)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>91 (32, 218)</t>
+          <t>131 (44, 316)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>72 (24, 182)</t>
+          <t>104 (33, 263)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>13 (5, 32)</t>
+          <t>19 (7, 48)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>15 (5, 38)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>10 (4, 27)</t>
+          <t>15 (6, 39)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>93 (36, 214)</t>
+          <t>132 (49, 311)</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>74 (27, 179)</t>
+          <t>106 (37, 259)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>14 (6, 32)</t>
+          <t>20 (8, 47)</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>16 (6, 38)</t>
         </is>
       </c>
     </row>
@@ -8540,57 +8540,57 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>39116 (13270, 92707)</t>
+          <t>43110 (14431, 102281)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>1548 (572, 3723)</t>
+          <t>1714 (631, 4106)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>88 (30, 213)</t>
+          <t>128 (41, 311)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>70 (22, 178)</t>
+          <t>102 (31, 259)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>13 (5, 31)</t>
+          <t>19 (6, 47)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>15 (5, 38)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>10 (4, 27)</t>
+          <t>14 (5, 40)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>90 (32, 214)</t>
+          <t>130 (45, 312)</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>71 (24, 178)</t>
+          <t>103 (33, 259)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>13 (5, 32)</t>
+          <t>19 (7, 48)</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>15 (5, 38)</t>
         </is>
       </c>
     </row>
@@ -8617,57 +8617,57 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>49162 (33091, 79149)</t>
+          <t>53153 (35387, 86324)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2119 (1626, 2931)</t>
+          <t>2336 (1780, 3250)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>110 (67, 181)</t>
+          <t>154 (92, 260)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>93 (53, 159)</t>
+          <t>129 (72, 225)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>23 (13, 38)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>18 (10, 30)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>11 (5, 22)</t>
+          <t>17 (8, 32)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>104 (65, 166)</t>
+          <t>147 (90, 237)</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>89 (51, 146)</t>
+          <t>124 (70, 207)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>21 (12, 34)</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>11 (7, 18)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -8694,57 +8694,57 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>41767 (24476, 74692)</t>
+          <t>44792 (25997, 80844)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>1859 (1262, 2894)</t>
+          <t>2032 (1371, 3175)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>99 (57, 177)</t>
+          <t>136 (76, 249)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>81 (43, 152)</t>
+          <t>110 (56, 211)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>16 (9, 27)</t>
+          <t>23 (13, 40)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>13 (7, 22)</t>
+          <t>18 (10, 32)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>17 (8, 33)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>106 (64, 176)</t>
+          <t>150 (89, 252)</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>89 (50, 154)</t>
+          <t>125 (68, 218)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>15 (9, 25)</t>
+          <t>22 (13, 38)</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>12 (7, 21)</t>
+          <t>18 (11, 31)</t>
         </is>
       </c>
     </row>
@@ -8771,57 +8771,57 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>36694 (18873, 72473)</t>
+          <t>39139 (19929, 77978)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>1601 (947, 2821)</t>
+          <t>1733 (1019, 3060)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>86 (44, 169)</t>
+          <t>115 (58, 233)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>69 (32, 143)</t>
+          <t>92 (42, 195)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>14 (8, 27)</t>
+          <t>20 (11, 38)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>12 (6, 21)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>12 (6, 23)</t>
+          <t>17 (8, 33)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>99 (55, 176)</t>
+          <t>138 (76, 250)</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>81 (42, 152)</t>
+          <t>112 (57, 214)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>15 (9, 26)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>12 (7, 21)</t>
+          <t>18 (10, 32)</t>
         </is>
       </c>
     </row>
@@ -8848,57 +8848,57 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>32944 (15037, 71121)</t>
+          <t>35000 (15783, 76120)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>1418 (737, 2794)</t>
+          <t>1521 (786, 3005)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>77 (35, 165)</t>
+          <t>101 (45, 222)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>61 (26, 138)</t>
+          <t>80 (33, 185)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>17 (8, 36)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>14 (6, 29)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>11 (5, 23)</t>
+          <t>15 (7, 32)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>88 (45, 172)</t>
+          <t>120 (60, 239)</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>71 (33, 147)</t>
+          <t>97 (44, 202)</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>14 (7, 26)</t>
+          <t>20 (10, 38)</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>11 (6, 21)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -8925,57 +8925,57 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>30286 (12336, 70215)</t>
+          <t>32018 (12914, 74855)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>1284 (594, 2777)</t>
+          <t>1367 (628, 2965)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>70 (29, 163)</t>
+          <t>92 (36, 216)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>55 (21, 135)</t>
+          <t>72 (26, 178)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>12 (5, 26)</t>
+          <t>15 (6, 35)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>9 (4, 21)</t>
+          <t>12 (5, 28)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>10 (5, 22)</t>
+          <t>14 (6, 30)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>78 (36, 168)</t>
+          <t>105 (47, 228)</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>63 (26, 141)</t>
+          <t>84 (34, 191)</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>17 (8, 36)</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>14 (6, 29)</t>
         </is>
       </c>
     </row>
@@ -9002,57 +9002,57 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>28074 (10355, 68529)</t>
+          <t>29559 (10800, 72726)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>1184 (492, 2754)</t>
+          <t>1251 (516, 2918)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>66 (24, 161)</t>
+          <t>84 (30, 210)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>51 (18, 132)</t>
+          <t>66 (22, 173)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>9 (3, 21)</t>
+          <t>11 (4, 27)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>9 (4, 22)</t>
+          <t>12 (5, 29)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>72 (30, 165)</t>
+          <t>94 (38, 220)</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>56 (21, 137)</t>
+          <t>74 (27, 182)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>12 (5, 26)</t>
+          <t>15 (6, 35)</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>9 (4, 21)</t>
+          <t>12 (5, 28)</t>
         </is>
       </c>
     </row>
@@ -9079,57 +9079,57 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>26031 (8853, 65513)</t>
+          <t>27330 (9197, 69295)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1097 (417, 2684)</t>
+          <t>1150 (433, 2827)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>62 (21, 157)</t>
+          <t>78 (26, 203)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>48 (15, 128)</t>
+          <t>61 (19, 166)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>13 (4, 33)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>8 (3, 20)</t>
+          <t>10 (4, 26)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>8 (3, 21)</t>
+          <t>11 (4, 29)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>67 (25, 162)</t>
+          <t>86 (31, 212)</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>52 (18, 133)</t>
+          <t>67 (22, 175)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>14 (5, 34)</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>9 (3, 21)</t>
+          <t>11 (4, 27)</t>
         </is>
       </c>
     </row>
@@ -9156,57 +9156,57 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>24439 (7792, 62572)</t>
+          <t>25596 (8061, 66071)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>1020 (358, 2594)</t>
+          <t>1062 (370, 2718)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>59 (19, 151)</t>
+          <t>73 (22, 195)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>45 (13, 123)</t>
+          <t>57 (16, 159)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10 (3, 25)</t>
+          <t>12 (4, 32)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>8 (3, 20)</t>
+          <t>9 (3, 25)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>8 (3, 21)</t>
+          <t>10 (4, 28)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>62 (21, 157)</t>
+          <t>79 (26, 204)</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>48 (15, 129)</t>
+          <t>62 (19, 167)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>13 (4, 33)</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>8 (3, 20)</t>
+          <t>10 (3, 26)</t>
         </is>
       </c>
     </row>
@@ -9233,57 +9233,57 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>60614 (40700, 97719)</t>
+          <t>65711 (43578, 106985)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2281 (1742, 3168)</t>
+          <t>2517 (1909, 3515)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>115 (70, 190)</t>
+          <t>162 (97, 274)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>98 (56, 168)</t>
+          <t>137 (76, 239)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>23 (14, 38)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>18 (11, 31)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>11 (6, 22)</t>
+          <t>17 (8, 32)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>105 (65, 168)</t>
+          <t>148 (91, 239)</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>90 (51, 148)</t>
+          <t>125 (70, 209)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>21 (12, 35)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>11 (7, 19)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -9310,57 +9310,57 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>70472 (41807, 123614)</t>
+          <t>76267 (44672, 135281)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2647 (1789, 4114)</t>
+          <t>2916 (1956, 4549)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>132 (75, 235)</t>
+          <t>185 (103, 340)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>112 (60, 207)</t>
+          <t>156 (81, 298)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>18 (10, 30)</t>
+          <t>25 (14, 45)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>14 (8, 24)</t>
+          <t>20 (11, 36)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>13 (6, 25)</t>
+          <t>19 (9, 36)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>116 (70, 194)</t>
+          <t>162 (97, 275)</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>99 (55, 171)</t>
+          <t>136 (75, 239)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>16 (9, 26)</t>
+          <t>23 (13, 39)</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>13 (8, 21)</t>
+          <t>19 (11, 31)</t>
         </is>
       </c>
     </row>
@@ -9387,57 +9387,57 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>80320 (42833, 150260)</t>
+          <t>87175 (45775, 164782)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3010 (1802, 5180)</t>
+          <t>3316 (1968, 5715)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>150 (78, 291)</t>
+          <t>214 (107, 422)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>127 (62, 254)</t>
+          <t>179 (84, 367)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>20 (11, 37)</t>
+          <t>29 (15, 55)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>16 (9, 30)</t>
+          <t>23 (12, 44)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>14 (7, 28)</t>
+          <t>20 (10, 41)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>131 (74, 235)</t>
+          <t>181 (101, 332)</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>110 (58, 206)</t>
+          <t>151 (79, 288)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>18 (10, 31)</t>
+          <t>25 (14, 45)</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>15 (8, 25)</t>
+          <t>21 (11, 37)</t>
         </is>
       </c>
     </row>
@@ -9464,57 +9464,57 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>89345 (43940, 173945)</t>
+          <t>97554 (47038, 191343)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3362 (1818, 6238)</t>
+          <t>3712 (1987, 6890)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>171 (81, 347)</t>
+          <t>246 (112, 510)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>143 (64, 301)</t>
+          <t>205 (88, 439)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>23 (11, 45)</t>
+          <t>33 (16, 68)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>18 (9, 36)</t>
+          <t>26 (12, 54)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>15 (7, 33)</t>
+          <t>22 (11, 48)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>148 (77, 286)</t>
+          <t>206 (105, 407)</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>124 (61, 248)</t>
+          <t>171 (82, 352)</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>20 (11, 37)</t>
+          <t>29 (15, 55)</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>16 (9, 31)</t>
+          <t>23 (12, 45)</t>
         </is>
       </c>
     </row>
@@ -9541,57 +9541,57 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>96000 (44660, 187617)</t>
+          <t>105732 (48108, 207449)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3648 (1821, 7056)</t>
+          <t>4044 (1998, 7821)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>192 (85, 396)</t>
+          <t>279 (118, 586)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>158 (65, 341)</t>
+          <t>229 (91, 501)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>26 (12, 53)</t>
+          <t>37 (16, 81)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>20 (9, 42)</t>
+          <t>30 (13, 64)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>17 (8, 39)</t>
+          <t>24 (11, 56)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>167 (80, 338)</t>
+          <t>236 (110, 488)</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>138 (62, 292)</t>
+          <t>194 (85, 418)</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>23 (11, 45)</t>
+          <t>33 (16, 67)</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>19 (9, 37)</t>
+          <t>26 (12, 54)</t>
         </is>
       </c>
     </row>
@@ -9618,57 +9618,57 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>98285 (44446, 187391)</t>
+          <t>109173 (48309, 208322)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3788 (1794, 7461)</t>
+          <t>4223 (1982, 8300)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>208 (88, 425)</t>
+          <t>307 (124, 634)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>170 (68, 365)</t>
+          <t>249 (95, 539)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>28 (12, 58)</t>
+          <t>41 (17, 90)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>22 (10, 46)</t>
+          <t>33 (13, 72)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>18 (8, 44)</t>
+          <t>26 (11, 65)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>186 (83, 382)</t>
+          <t>266 (115, 560)</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>152 (64, 328)</t>
+          <t>217 (88, 477)</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>25 (12, 52)</t>
+          <t>37 (16, 79)</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>21 (9, 43)</t>
+          <t>30 (13, 64)</t>
         </is>
       </c>
     </row>
@@ -9695,57 +9695,57 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>96114 (43317, 176223)</t>
+          <t>107427 (47483, 196875)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>3780 (1735, 7436)</t>
+          <t>4233 (1928, 8315)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>217 (90, 430)</t>
+          <t>322 (129, 642)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>176 (69, 368)</t>
+          <t>259 (98, 546)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>29 (12, 61)</t>
+          <t>44 (17, 95)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>23 (10, 48)</t>
+          <t>35 (14, 75)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>19 (8, 49)</t>
+          <t>29 (12, 73)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>200 (86, 410)</t>
+          <t>293 (121, 609)</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>162 (65, 351)</t>
+          <t>236 (91, 517)</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>28 (12, 57)</t>
+          <t>41 (17, 88)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>22 (9, 46)</t>
+          <t>32 (13, 71)</t>
         </is>
       </c>
     </row>
@@ -9772,57 +9772,57 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>91020 (41509, 161359)</t>
+          <t>102448 (45954, 181160)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>3643 (1646, 7112)</t>
+          <t>4097 (1839, 8005)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>216 (91, 415)</t>
+          <t>322 (132, 621)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>176 (69, 357)</t>
+          <t>258 (99, 529)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>30 (12, 59)</t>
+          <t>45 (18, 94)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>23 (10, 47)</t>
+          <t>36 (14, 75)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>21 (8, 53)</t>
+          <t>31 (12, 78)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>209 (88, 417)</t>
+          <t>310 (125, 626)</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>169 (66, 357)</t>
+          <t>248 (94, 532)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>29 (12, 59)</t>
+          <t>43 (17, 92)</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>23 (10, 47)</t>
+          <t>34 (14, 74)</t>
         </is>
       </c>
     </row>
@@ -9849,57 +9849,57 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>65285 (43842, 105018)</t>
+          <t>70444 (46727, 114476)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2350 (1790, 3265)</t>
+          <t>2588 (1958, 3617)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>118 (72, 195)</t>
+          <t>165 (99, 279)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>101 (57, 172)</t>
+          <t>140 (78, 245)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>16 (9, 25)</t>
+          <t>23 (14, 38)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>12 (7, 20)</t>
+          <t>18 (11, 31)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>11 (6, 22)</t>
+          <t>17 (8, 32)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>105 (65, 168)</t>
+          <t>148 (91, 240)</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>90 (52, 148)</t>
+          <t>125 (71, 209)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>14 (8, 23)</t>
+          <t>21 (12, 35)</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>11 (7, 19)</t>
+          <t>17 (10, 28)</t>
         </is>
       </c>
     </row>
@@ -9926,57 +9926,57 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>84307 (50365, 146082)</t>
+          <t>90297 (53190, 158491)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3019 (2037, 4679)</t>
+          <t>3300 (2208, 5136)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>150 (85, 269)</t>
+          <t>208 (116, 383)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>129 (69, 239)</t>
+          <t>178 (93, 338)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
+          <t>27 (15, 47)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>21 (12, 38)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>19 (9, 37)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>168 (100, 286)</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>141 (78, 250)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>23 (14, 40)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
           <t>19 (11, 32)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>15 (8, 25)</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>13 (6, 26)</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>122 (73, 205)</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>104 (58, 181)</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>16 (9, 26)</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>13 (8, 22)</t>
         </is>
       </c>
     </row>
@@ -10003,57 +10003,57 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>104352 (56892, 189900)</t>
+          <t>111757 (59760, 205978)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3785 (2277, 6428)</t>
+          <t>4114 (2451, 7013)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>193 (100, 369)</t>
+          <t>267 (134, 523)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>165 (81, 326)</t>
+          <t>227 (108, 459)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>24 (13, 44)</t>
+          <t>33 (17, 64)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>19 (10, 35)</t>
+          <t>26 (14, 51)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>16 (7, 32)</t>
+          <t>22 (11, 45)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>149 (84, 273)</t>
+          <t>203 (112, 376)</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>127 (67, 241)</t>
+          <t>171 (88, 328)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>19 (11, 34)</t>
+          <t>27 (15, 49)</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>16 (9, 28)</t>
+          <t>22 (12, 39)</t>
         </is>
       </c>
     </row>
@@ -10080,57 +10080,57 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>123457 (63294, 226798)</t>
+          <t>132621 (66377, 246233)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4556 (2504, 8181)</t>
+          <t>4944 (2688, 8904)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>242 (116, 477)</t>
+          <t>335 (155, 676)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>204 (93, 417)</t>
+          <t>282 (124, 587)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>30 (15, 59)</t>
+          <t>42 (20, 85)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>24 (12, 47)</t>
+          <t>33 (16, 68)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18 (9, 40)</t>
+          <t>26 (12, 57)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>188 (98, 365)</t>
+          <t>254 (129, 502)</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>158 (77, 319)</t>
+          <t>212 (101, 436)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>24 (13, 45)</t>
+          <t>33 (17, 65)</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>20 (10, 38)</t>
+          <t>27 (14, 53)</t>
         </is>
       </c>
     </row>
@@ -10157,57 +10157,57 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>136004 (68071, 242800)</t>
+          <t>147005 (71712, 264821)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5161 (2685, 9450)</t>
+          <t>5606 (2882, 10304)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>289 (133, 564)</t>
+          <t>402 (178, 800)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>240 (104, 490)</t>
+          <t>333 (139, 691)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>37 (17, 73)</t>
+          <t>51 (23, 107)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>29 (14, 58)</t>
+          <t>41 (18, 85)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22 (10, 50)</t>
+          <t>31 (14, 72)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>233 (113, 461)</t>
+          <t>316 (148, 641)</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>193 (87, 401)</t>
+          <t>261 (115, 553)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>30 (15, 59)</t>
+          <t>41 (20, 85)</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>25 (12, 49)</t>
+          <t>34 (16, 69)</t>
         </is>
       </c>
     </row>
@@ -10234,57 +10234,57 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>137846 (69553, 235061)</t>
+          <t>149955 (73734, 257836)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5430 (2742, 9935)</t>
+          <t>5912 (2953, 10872)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>321 (147, 602)</t>
+          <t>448 (197, 858)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>263 (113, 522)</t>
+          <t>366 (151, 737)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>42 (19, 83)</t>
+          <t>59 (26, 122)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>34 (15, 66)</t>
+          <t>47 (20, 97)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>25 (11, 61)</t>
+          <t>36 (16, 87)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>275 (128, 538)</t>
+          <t>378 (169, 758)</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>226 (98, 466)</t>
+          <t>309 (129, 652)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>36 (17, 73)</t>
+          <t>50 (22, 105)</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>30 (14, 59)</t>
+          <t>41 (18, 85)</t>
         </is>
       </c>
     </row>
@@ -10311,57 +10311,57 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>129808 (66985, 214257)</t>
+          <t>142148 (71703, 236089)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5331 (2661, 9681)</t>
+          <t>5829 (2878, 10657)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>328 (154, 591)</t>
+          <t>459 (208, 844)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>268 (117, 512)</t>
+          <t>372 (157, 724)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>45 (20, 85)</t>
+          <t>64 (27, 127)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>35 (16, 68)</t>
+          <t>50 (21, 101)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>28 (12, 70)</t>
+          <t>40 (17, 99)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>305 (140, 578)</t>
+          <t>425 (187, 823)</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>249 (105, 500)</t>
+          <t>345 (141, 705)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>41 (19, 81)</t>
+          <t>58 (25, 119)</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>33 (15, 65)</t>
+          <t>46 (20, 95)</t>
         </is>
       </c>
     </row>
@@ -10388,57 +10388,57 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>117278 (61467, 190009)</t>
+          <t>129216 (66520, 210359)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4982 (2459, 8953)</t>
+          <t>5468 (2673, 9925)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>313 (153, 546)</t>
+          <t>440 (208, 784)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>256 (115, 473)</t>
+          <t>355 (155, 672)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>44 (21, 81)</t>
+          <t>63 (28, 122)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>35 (16, 65)</t>
+          <t>50 (22, 97)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>31 (13, 75)</t>
+          <t>43 (18, 106)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>315 (147, 573)</t>
+          <t>443 (199, 824)</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>257 (109, 496)</t>
+          <t>358 (148, 707)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>43 (20, 83)</t>
+          <t>62 (27, 123)</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>34 (16, 66)</t>
+          <t>49 (21, 98)</t>
         </is>
       </c>
     </row>
@@ -14236,42 +14236,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>105 (50, 209)</t>
+          <t>164 (80, 323)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>89 (36, 190)</t>
+          <t>140 (59, 293)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11 (5, 24)</t>
+          <t>17 (7, 37)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>16 (8, 29)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>94 (45, 188)</t>
+          <t>148 (72, 292)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>80 (32, 170)</t>
+          <t>126 (53, 264)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 34)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>14 (8, 27)</t>
         </is>
       </c>
     </row>
@@ -14298,42 +14298,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>129 (55, 278)</t>
+          <t>193 (86, 408)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>110 (40, 251)</t>
+          <t>165 (63, 369)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14 (6, 31)</t>
+          <t>21 (8, 46)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11 (5, 21)</t>
+          <t>18 (9, 36)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>114 (50, 239)</t>
+          <t>172 (77, 357)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>96 (35, 216)</t>
+          <t>146 (56, 323)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>12 (5, 26)</t>
+          <t>18 (7, 40)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>9 (5, 18)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -14360,42 +14360,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>161 (61, 380)</t>
+          <t>229 (91, 531)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>133 (42, 339)</t>
+          <t>192 (64, 474)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>20 (7, 46)</t>
+          <t>26 (10, 62)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>14 (6, 31)</t>
+          <t>22 (10, 47)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>143 (55, 330)</t>
+          <t>206 (83, 469)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>119 (38, 295)</t>
+          <t>173 (58, 419)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>17 (6, 38)</t>
+          <t>23 (9, 53)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>12 (6, 26)</t>
+          <t>19 (9, 41)</t>
         </is>
       </c>
     </row>
@@ -14422,42 +14422,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>191 (66, 477)</t>
+          <t>265 (95, 652)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>153 (41, 419)</t>
+          <t>216 (63, 575)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>26 (9, 65)</t>
+          <t>33 (12, 83)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>19 (8, 43)</t>
+          <t>27 (11, 62)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>173 (60, 428)</t>
+          <t>242 (88, 590)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>138 (37, 376)</t>
+          <t>197 (58, 520)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>23 (8, 56)</t>
+          <t>30 (10, 73)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>17 (7, 37)</t>
+          <t>24 (10, 55)</t>
         </is>
       </c>
     </row>
@@ -14484,42 +14484,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>210 (68, 536)</t>
+          <t>290 (98, 735)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>162 (39, 465)</t>
+          <t>230 (61, 642)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>31 (10, 80)</t>
+          <t>39 (13, 101)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>22 (9, 52)</t>
+          <t>31 (12, 75)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>192 (63, 489)</t>
+          <t>268 (91, 675)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>147 (36, 422)</t>
+          <t>211 (57, 587)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>28 (9, 72)</t>
+          <t>35 (12, 91)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>20 (8, 47)</t>
+          <t>28 (11, 68)</t>
         </is>
       </c>
     </row>
@@ -14546,42 +14546,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>213 (67, 549)</t>
+          <t>300 (97, 767)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>160 (37, 473)</t>
+          <t>232 (59, 665)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>33 (11, 86)</t>
+          <t>41 (13, 109)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>24 (9, 55)</t>
+          <t>33 (12, 81)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>196 (62, 503)</t>
+          <t>278 (90, 708)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>146 (34, 432)</t>
+          <t>215 (55, 613)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>30 (10, 79)</t>
+          <t>38 (12, 100)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>22 (8, 51)</t>
+          <t>30 (11, 74)</t>
         </is>
       </c>
     </row>
@@ -14608,42 +14608,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>205 (63, 528)</t>
+          <t>296 (94, 755)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>152 (34, 454)</t>
+          <t>228 (56, 652)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31 (10, 83)</t>
+          <t>39 (12, 107)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>23 (8, 53)</t>
+          <t>33 (12, 81)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>188 (59, 486)</t>
+          <t>275 (87, 699)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>140 (32, 417)</t>
+          <t>211 (53, 604)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>28 (9, 75)</t>
+          <t>36 (11, 98)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21 (8, 49)</t>
+          <t>30 (11, 74)</t>
         </is>
       </c>
     </row>
@@ -14670,42 +14670,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>193 (59, 490)</t>
+          <t>286 (90, 717)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>145 (33, 422)</t>
+          <t>221 (55, 621)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>27 (8, 74)</t>
+          <t>36 (11, 99)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21 (8, 48)</t>
+          <t>31 (11, 76)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>178 (55, 453)</t>
+          <t>266 (84, 667)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>135 (31, 390)</t>
+          <t>206 (52, 577)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>24 (8, 67)</t>
+          <t>33 (10, 91)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>19 (7, 44)</t>
+          <t>29 (10, 71)</t>
         </is>
       </c>
     </row>
@@ -14732,42 +14732,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>100 (46, 201)</t>
+          <t>159 (77, 315)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>85 (34, 182)</t>
+          <t>135 (57, 285)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 38)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>16 (8, 29)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>92 (43, 184)</t>
+          <t>146 (71, 290)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>78 (31, 166)</t>
+          <t>124 (51, 261)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
     </row>
@@ -14794,42 +14794,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>105 (46, 222)</t>
+          <t>167 (77, 348)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>88 (33, 200)</t>
+          <t>141 (56, 313)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12 (5, 27)</t>
+          <t>19 (8, 42)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10 (5, 18)</t>
+          <t>17 (8, 33)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>97 (43, 205)</t>
+          <t>154 (71, 322)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>81 (30, 185)</t>
+          <t>129 (51, 289)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>17 (7, 39)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>16 (8, 30)</t>
         </is>
       </c>
     </row>
@@ -14856,42 +14856,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>108 (44, 242)</t>
+          <t>172 (73, 383)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>89 (31, 217)</t>
+          <t>143 (53, 341)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13 (5, 30)</t>
+          <t>19 (8, 46)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>17 (8, 36)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>101 (41, 226)</t>
+          <t>160 (68, 357)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>83 (29, 202)</t>
+          <t>133 (48, 318)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12 (4, 28)</t>
+          <t>18 (7, 43)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>16 (8, 34)</t>
         </is>
       </c>
     </row>
@@ -14918,42 +14918,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>110 (41, 264)</t>
+          <t>176 (69, 420)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>89 (29, 234)</t>
+          <t>145 (49, 371)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13 (5, 33)</t>
+          <t>20 (7, 50)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>10 (4, 23)</t>
+          <t>18 (8, 40)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>103 (38, 248)</t>
+          <t>166 (64, 394)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>84 (27, 220)</t>
+          <t>136 (45, 348)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12 (4, 31)</t>
+          <t>19 (7, 47)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10 (4, 21)</t>
+          <t>17 (7, 37)</t>
         </is>
       </c>
     </row>
@@ -14980,42 +14980,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>112 (39, 285)</t>
+          <t>183 (65, 457)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>91 (27, 250)</t>
+          <t>149 (46, 401)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13 (4, 35)</t>
+          <t>20 (7, 54)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>18 (7, 44)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>107 (36, 269)</t>
+          <t>173 (61, 432)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>86 (25, 236)</t>
+          <t>140 (43, 378)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>13 (4, 33)</t>
+          <t>19 (6, 51)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>10 (4, 23)</t>
+          <t>17 (7, 41)</t>
         </is>
       </c>
     </row>
@@ -15042,42 +15042,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>115 (37, 303)</t>
+          <t>190 (63, 490)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>92 (25, 265)</t>
+          <t>153 (44, 429)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13 (4, 37)</t>
+          <t>21 (6, 58)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>19 (7, 48)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>110 (35, 287)</t>
+          <t>180 (60, 464)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>87 (24, 251)</t>
+          <t>145 (41, 406)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13 (4, 35)</t>
+          <t>20 (6, 55)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>10 (4, 25)</t>
+          <t>18 (7, 45)</t>
         </is>
       </c>
     </row>
@@ -15104,42 +15104,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>118 (36, 314)</t>
+          <t>196 (62, 511)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>94 (24, 276)</t>
+          <t>157 (43, 447)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13 (4, 38)</t>
+          <t>21 (6, 60)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>11 (4, 27)</t>
+          <t>20 (7, 50)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>112 (34, 298)</t>
+          <t>187 (59, 485)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>89 (23, 261)</t>
+          <t>149 (40, 424)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13 (4, 36)</t>
+          <t>20 (6, 57)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>19 (6, 48)</t>
         </is>
       </c>
     </row>
@@ -15166,42 +15166,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>119 (35, 317)</t>
+          <t>200 (60, 517)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>95 (24, 279)</t>
+          <t>159 (42, 452)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13 (4, 38)</t>
+          <t>21 (6, 60)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>20 (7, 51)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>114 (33, 302)</t>
+          <t>190 (58, 491)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>91 (23, 266)</t>
+          <t>152 (39, 429)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>12 (4, 36)</t>
+          <t>20 (6, 57)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>19 (6, 49)</t>
         </is>
       </c>
     </row>
@@ -15228,42 +15228,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>100 (47, 197)</t>
+          <t>157 (76, 309)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>85 (34, 180)</t>
+          <t>134 (56, 279)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11 (4, 23)</t>
+          <t>17 (7, 37)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>16 (8, 29)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>92 (43, 182)</t>
+          <t>145 (70, 286)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>78 (31, 166)</t>
+          <t>123 (51, 258)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>10 (4, 21)</t>
+          <t>16 (7, 34)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>14 (8, 27)</t>
         </is>
       </c>
     </row>
@@ -15290,42 +15290,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>99 (44, 209)</t>
+          <t>157 (72, 325)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>84 (31, 189)</t>
+          <t>132 (52, 292)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>18 (7, 40)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>92 (41, 195)</t>
+          <t>146 (66, 304)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>77 (28, 176)</t>
+          <t>122 (47, 273)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 38)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>15 (8, 29)</t>
         </is>
       </c>
     </row>
@@ -15352,42 +15352,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>94 (39, 211)</t>
+          <t>148 (63, 330)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>77 (27, 189)</t>
+          <t>122 (44, 294)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11 (4, 27)</t>
+          <t>18 (7, 42)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9 (4, 19)</t>
+          <t>16 (8, 33)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>87 (36, 198)</t>
+          <t>138 (58, 310)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>71 (24, 177)</t>
+          <t>113 (40, 276)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>11 (4, 25)</t>
+          <t>16 (6, 39)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>15 (7, 31)</t>
         </is>
       </c>
     </row>
@@ -15414,42 +15414,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>87 (33, 210)</t>
+          <t>139 (54, 332)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>70 (22, 186)</t>
+          <t>113 (37, 292)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11 (4, 28)</t>
+          <t>16 (6, 42)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>8 (4, 19)</t>
+          <t>15 (7, 33)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>82 (31, 199)</t>
+          <t>130 (50, 313)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>66 (21, 176)</t>
+          <t>105 (34, 276)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>10 (4, 26)</t>
+          <t>15 (5, 40)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>8 (3, 18)</t>
+          <t>14 (6, 31)</t>
         </is>
       </c>
     </row>
@@ -15476,42 +15476,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>82 (29, 211)</t>
+          <t>131 (47, 335)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>65 (19, 184)</t>
+          <t>105 (32, 293)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>10 (3, 27)</t>
+          <t>15 (5, 42)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>8 (3, 19)</t>
+          <t>14 (6, 33)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>77 (27, 200)</t>
+          <t>124 (43, 318)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>61 (18, 175)</t>
+          <t>99 (29, 278)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>9 (3, 26)</t>
+          <t>14 (5, 40)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>7 (3, 18)</t>
+          <t>13 (5, 32)</t>
         </is>
       </c>
     </row>
@@ -15538,42 +15538,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>78 (25, 212)</t>
+          <t>126 (41, 339)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>62 (17, 184)</t>
+          <t>101 (28, 294)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>9 (3, 27)</t>
+          <t>14 (4, 42)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7 (3, 19)</t>
+          <t>13 (5, 34)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>74 (24, 202)</t>
+          <t>120 (38, 323)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>58 (16, 175)</t>
+          <t>95 (26, 280)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>9 (3, 26)</t>
+          <t>14 (4, 40)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>7 (3, 18)</t>
+          <t>13 (4, 32)</t>
         </is>
       </c>
     </row>
@@ -15600,42 +15600,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>75 (23, 212)</t>
+          <t>123 (37, 340)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>59 (15, 183)</t>
+          <t>97 (25, 294)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>9 (2, 26)</t>
+          <t>14 (4, 41)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>7 (2, 19)</t>
+          <t>13 (4, 34)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>72 (21, 203)</t>
+          <t>117 (35, 325)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>56 (14, 175)</t>
+          <t>92 (23, 280)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>8 (2, 25)</t>
+          <t>13 (3, 39)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>7 (2, 18)</t>
+          <t>12 (4, 33)</t>
         </is>
       </c>
     </row>
@@ -15662,42 +15662,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>73 (21, 210)</t>
+          <t>120 (34, 338)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>57 (14, 181)</t>
+          <t>94 (23, 291)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>8 (2, 26)</t>
+          <t>13 (3, 40)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>7 (2, 19)</t>
+          <t>12 (4, 34)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>70 (19, 201)</t>
+          <t>114 (32, 323)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>55 (13, 172)</t>
+          <t>90 (21, 277)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>8 (2, 24)</t>
+          <t>12 (3, 39)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>7 (2, 18)</t>
+          <t>12 (4, 33)</t>
         </is>
       </c>
     </row>
@@ -15724,42 +15724,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>98 (46, 198)</t>
+          <t>156 (75, 309)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>83 (33, 180)</t>
+          <t>132 (55, 278)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 38)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>16 (8, 29)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91 (42, 184)</t>
+          <t>144 (69, 287)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>77 (30, 167)</t>
+          <t>122 (50, 258)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
     </row>
@@ -15786,42 +15786,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>95 (42, 200)</t>
+          <t>149 (68, 311)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>79 (29, 181)</t>
+          <t>124 (48, 278)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>17 (7, 40)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>87 (38, 187)</t>
+          <t>137 (61, 290)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>72 (26, 168)</t>
+          <t>113 (42, 259)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>10 (4, 24)</t>
+          <t>16 (7, 37)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>15 (7, 29)</t>
         </is>
       </c>
     </row>
@@ -15848,42 +15848,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>83 (34, 190)</t>
+          <t>128 (54, 289)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>67 (22, 168)</t>
+          <t>103 (35, 255)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>11 (4, 26)</t>
+          <t>16 (6, 40)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>8 (4, 17)</t>
+          <t>15 (7, 30)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>75 (30, 176)</t>
+          <t>116 (48, 268)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>60 (19, 155)</t>
+          <t>93 (31, 235)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>10 (4, 24)</t>
+          <t>15 (6, 37)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>8 (4, 16)</t>
+          <t>13 (6, 28)</t>
         </is>
       </c>
     </row>
@@ -15910,42 +15910,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>70 (26, 175)</t>
+          <t>107 (41, 261)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>55 (16, 152)</t>
+          <t>84 (26, 227)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10 (3, 25)</t>
+          <t>14 (5, 37)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>7 (3, 17)</t>
+          <t>13 (6, 28)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>64 (23, 163)</t>
+          <t>97 (36, 243)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>50 (15, 142)</t>
+          <t>76 (22, 211)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>9 (3, 24)</t>
+          <t>13 (4, 34)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>7 (3, 15)</t>
+          <t>11 (5, 26)</t>
         </is>
       </c>
     </row>
@@ -15972,42 +15972,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>60 (20, 163)</t>
+          <t>90 (31, 239)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>46 (13, 141)</t>
+          <t>70 (19, 206)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>8 (3, 24)</t>
+          <t>12 (4, 34)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>6 (3, 16)</t>
+          <t>10 (4, 25)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>56 (18, 154)</t>
+          <t>83 (28, 225)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>43 (11, 132)</t>
+          <t>64 (17, 193)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>8 (2, 22)</t>
+          <t>11 (3, 32)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>6 (2, 15)</t>
+          <t>10 (4, 24)</t>
         </is>
       </c>
     </row>
@@ -16034,42 +16034,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>53 (16, 155)</t>
+          <t>79 (25, 224)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>40 (10, 133)</t>
+          <t>60 (15, 191)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>8 (2, 23)</t>
+          <t>10 (3, 31)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>6 (2, 15)</t>
+          <t>9 (3, 24)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>50 (15, 147)</t>
+          <t>73 (22, 212)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>37 (9, 125)</t>
+          <t>56 (13, 180)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>7 (2, 21)</t>
+          <t>10 (3, 29)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>5 (2, 14)</t>
+          <t>8 (3, 22)</t>
         </is>
       </c>
     </row>
@@ -16096,42 +16096,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>48 (14, 149)</t>
+          <t>70 (20, 212)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>36 (8, 126)</t>
+          <t>53 (12, 179)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
+          <t>9 (2, 29)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>8 (3, 22)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>66 (18, 201)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>49 (11, 170)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>9 (2, 27)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
           <t>7 (2, 21)</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>5 (2, 14)</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>45 (12, 141)</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>33 (7, 120)</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>7 (2, 20)</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>5 (2, 14)</t>
         </is>
       </c>
     </row>
@@ -16158,42 +16158,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>44 (12, 143)</t>
+          <t>64 (17, 201)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>32 (7, 120)</t>
+          <t>47 (10, 170)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6 (2, 20)</t>
+          <t>8 (2, 27)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>5 (1, 14)</t>
+          <t>7 (2, 21)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>41 (11, 136)</t>
+          <t>60 (15, 191)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>30 (6, 114)</t>
+          <t>44 (9, 161)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>6 (1, 19)</t>
+          <t>8 (2, 26)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>5 (1, 13)</t>
+          <t>7 (2, 20)</t>
         </is>
       </c>
     </row>
@@ -16220,42 +16220,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>101 (48, 203)</t>
+          <t>162 (78, 319)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>86 (36, 184)</t>
+          <t>138 (58, 289)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 38)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>16 (8, 29)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>92 (44, 185)</t>
+          <t>148 (72, 292)</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>79 (32, 167)</t>
+          <t>126 (52, 264)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>15 (8, 27)</t>
         </is>
       </c>
     </row>
@@ -16282,42 +16282,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>113 (51, 238)</t>
+          <t>180 (83, 374)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>96 (38, 215)</t>
+          <t>153 (62, 337)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>12 (5, 28)</t>
+          <t>19 (8, 43)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>10 (5, 19)</t>
+          <t>17 (9, 34)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>103 (47, 215)</t>
+          <t>164 (76, 339)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>88 (34, 194)</t>
+          <t>139 (56, 306)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>11 (5, 25)</t>
+          <t>18 (7, 40)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>9 (4, 17)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -16344,42 +16344,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>125 (54, 282)</t>
+          <t>201 (87, 449)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>105 (39, 254)</t>
+          <t>170 (64, 403)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>14 (5, 33)</t>
+          <t>22 (8, 51)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>11 (5, 23)</t>
+          <t>19 (9, 40)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>116 (50, 257)</t>
+          <t>186 (80, 409)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>97 (36, 232)</t>
+          <t>156 (59, 367)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>13 (5, 30)</t>
+          <t>20 (8, 47)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>10 (5, 21)</t>
+          <t>17 (8, 36)</t>
         </is>
       </c>
     </row>
@@ -16406,42 +16406,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>138 (55, 332)</t>
+          <t>226 (89, 534)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>115 (40, 295)</t>
+          <t>188 (66, 474)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>16 (6, 39)</t>
+          <t>24 (9, 60)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>12 (5, 27)</t>
+          <t>21 (9, 48)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>129 (52, 306)</t>
+          <t>210 (84, 491)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>107 (37, 273)</t>
+          <t>175 (61, 437)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>15 (5, 36)</t>
+          <t>22 (8, 55)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>11 (5, 25)</t>
+          <t>20 (9, 44)</t>
         </is>
       </c>
     </row>
@@ -16468,42 +16468,42 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>151 (57, 380)</t>
+          <t>253 (93, 616)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>125 (41, 336)</t>
+          <t>208 (67, 545)</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>17 (6, 45)</t>
+          <t>26 (9, 70)</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>13 (5, 32)</t>
+          <t>24 (10, 57)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>142 (53, 353)</t>
+          <t>236 (87, 573)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>116 (38, 312)</t>
+          <t>195 (63, 505)</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>16 (5, 42)</t>
+          <t>25 (8, 65)</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>12 (5, 29)</t>
+          <t>22 (9, 53)</t>
         </is>
       </c>
     </row>
@@ -16530,42 +16530,42 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>164 (59, 419)</t>
+          <t>278 (97, 684)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>134 (42, 369)</t>
+          <t>228 (70, 602)</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18 (6, 50)</t>
+          <t>28 (9, 78)</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>14 (6, 35)</t>
+          <t>27 (10, 65)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>155 (56, 393)</t>
+          <t>262 (92, 641)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>126 (39, 346)</t>
+          <t>213 (65, 563)</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>17 (6, 46)</t>
+          <t>27 (9, 73)</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>14 (5, 33)</t>
+          <t>25 (9, 60)</t>
         </is>
       </c>
     </row>
@@ -16592,42 +16592,42 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>175 (61, 440)</t>
+          <t>297 (101, 722)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>142 (43, 388)</t>
+          <t>241 (71, 635)</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>19 (6, 52)</t>
+          <t>30 (9, 83)</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>15 (6, 37)</t>
+          <t>29 (10, 70)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>166 (58, 415)</t>
+          <t>281 (96, 680)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>134 (40, 365)</t>
+          <t>228 (67, 597)</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>18 (6, 49)</t>
+          <t>28 (9, 79)</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>15 (5, 35)</t>
+          <t>27 (10, 66)</t>
         </is>
       </c>
     </row>
@@ -16654,42 +16654,42 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>181 (62, 441)</t>
+          <t>306 (104, 727)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>146 (44, 388)</t>
+          <t>247 (72, 638)</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>19 (6, 53)</t>
+          <t>30 (9, 85)</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>16 (6, 38)</t>
+          <t>30 (11, 72)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>172 (59, 417)</t>
+          <t>290 (99, 687)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>139 (41, 366)</t>
+          <t>233 (68, 603)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>18 (5, 50)</t>
+          <t>29 (9, 80)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>15 (6, 36)</t>
+          <t>29 (10, 68)</t>
         </is>
       </c>
     </row>
@@ -16716,42 +16716,42 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>103 (47, 208)</t>
+          <t>163 (79, 323)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>88 (34, 190)</t>
+          <t>139 (58, 293)</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>11 (4, 24)</t>
+          <t>17 (7, 38)</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>9 (4, 16)</t>
+          <t>16 (8, 29)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>93 (43, 188)</t>
+          <t>148 (71, 293)</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>79 (30, 171)</t>
+          <t>125 (52, 265)</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>10 (4, 22)</t>
+          <t>16 (7, 35)</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>8 (4, 15)</t>
+          <t>14 (7, 27)</t>
         </is>
       </c>
     </row>
@@ -16778,42 +16778,42 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>127 (55, 264)</t>
+          <t>197 (90, 409)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>108 (40, 240)</t>
+          <t>169 (67, 370)</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>13 (5, 29)</t>
+          <t>20 (8, 45)</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>10 (5, 20)</t>
+          <t>18 (9, 35)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>112 (49, 232)</t>
+          <t>176 (80, 360)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>96 (36, 211)</t>
+          <t>149 (59, 326)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>11 (5, 26)</t>
+          <t>18 (7, 40)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>9 (4, 18)</t>
+          <t>16 (8, 31)</t>
         </is>
       </c>
     </row>
@@ -16840,42 +16840,42 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>157 (64, 347)</t>
+          <t>244 (103, 539)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>134 (46, 314)</t>
+          <t>208 (78, 486)</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>16 (6, 38)</t>
+          <t>25 (9, 57)</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>13 (6, 26)</t>
+          <t>22 (10, 45)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>141 (58, 307)</t>
+          <t>219 (94, 476)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>120 (42, 278)</t>
+          <t>187 (70, 430)</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>14 (5, 33)</t>
+          <t>22 (8, 51)</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>11 (5, 23)</t>
+          <t>19 (9, 40)</t>
         </is>
       </c>
     </row>
@@ -16902,42 +16902,42 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>191 (73, 445)</t>
+          <t>299 (117, 692)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>161 (53, 401)</t>
+          <t>253 (88, 620)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>20 (7, 49)</t>
+          <t>30 (11, 74)</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>16 (7, 35)</t>
+          <t>27 (11, 59)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>174 (67, 400)</t>
+          <t>271 (108, 622)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>146 (48, 360)</t>
+          <t>229 (80, 557)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>18 (6, 44)</t>
+          <t>27 (10, 66)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>14 (6, 31)</t>
+          <t>24 (10, 53)</t>
         </is>
       </c>
     </row>
@@ -16964,42 +16964,42 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>227 (83, 540)</t>
+          <t>357 (133, 838)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>189 (59, 484)</t>
+          <t>298 (98, 747)</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>24 (8, 61)</t>
+          <t>36 (12, 91)</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>19 (8, 43)</t>
+          <t>32 (13, 74)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>209 (77, 493)</t>
+          <t>328 (123, 768)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>173 (54, 442)</t>
+          <t>274 (90, 683)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>22 (7, 55)</t>
+          <t>33 (11, 83)</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>18 (7, 39)</t>
+          <t>30 (12, 67)</t>
         </is>
       </c>
     </row>
@@ -17026,42 +17026,42 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>257 (91, 607)</t>
+          <t>406 (147, 941)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>212 (64, 546)</t>
+          <t>336 (106, 836)</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>27 (9, 69)</t>
+          <t>40 (13, 105)</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>22 (9, 50)</t>
+          <t>38 (14, 87)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>240 (85, 564)</t>
+          <t>378 (137, 875)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>197 (59, 505)</t>
+          <t>312 (99, 775)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>25 (8, 64)</t>
+          <t>38 (12, 97)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>21 (8, 46)</t>
+          <t>35 (13, 80)</t>
         </is>
       </c>
     </row>
@@ -17088,42 +17088,42 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>274 (98, 632)</t>
+          <t>434 (158, 978)</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>225 (68, 567)</t>
+          <t>355 (112, 867)</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29 (9, 74)</t>
+          <t>43 (14, 113)</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>24 (9, 54)</t>
+          <t>42 (16, 94)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>257 (92, 590)</t>
+          <t>407 (149, 916)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>210 (63, 529)</t>
+          <t>332 (105, 810)</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>27 (9, 69)</t>
+          <t>41 (13, 106)</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>23 (9, 50)</t>
+          <t>39 (15, 88)</t>
         </is>
       </c>
     </row>
@@ -17150,42 +17150,42 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>274 (102, 617)</t>
+          <t>435 (163, 956)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>225 (69, 552)</t>
+          <t>353 (113, 847)</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29 (10, 73)</t>
+          <t>44 (14, 114)</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25 (10, 54)</t>
+          <t>43 (16, 95)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>257 (95, 579)</t>
+          <t>408 (153, 898)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>210 (65, 518)</t>
+          <t>331 (106, 796)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>27 (9, 69)</t>
+          <t>41 (13, 107)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>23 (9, 50)</t>
+          <t>41 (15, 89)</t>
         </is>
       </c>
     </row>
